--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3a-Plxna4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3a-Plxna4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Sema3a</t>
   </si>
   <si>
     <t>Plxna4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.026972333333333</v>
+        <v>0.8200746666666667</v>
       </c>
       <c r="H2">
-        <v>3.080917</v>
+        <v>2.460224</v>
       </c>
       <c r="I2">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="J2">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.316186</v>
+        <v>4.043133999999999</v>
       </c>
       <c r="N2">
-        <v>9.948558</v>
+        <v>12.129402</v>
       </c>
       <c r="O2">
-        <v>0.7638813129544794</v>
+        <v>0.7517044794313785</v>
       </c>
       <c r="P2">
-        <v>0.7638813129544793</v>
+        <v>0.7517044794313784</v>
       </c>
       <c r="Q2">
-        <v>3.405631274187333</v>
+        <v>3.315671767338666</v>
       </c>
       <c r="R2">
-        <v>30.650681467686</v>
+        <v>29.841045906048</v>
       </c>
       <c r="S2">
-        <v>0.1552620748717143</v>
+        <v>0.03240818938786084</v>
       </c>
       <c r="T2">
-        <v>0.1552620748717142</v>
+        <v>0.03240818938786083</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.026972333333333</v>
+        <v>0.8200746666666667</v>
       </c>
       <c r="H3">
-        <v>3.080917</v>
+        <v>2.460224</v>
       </c>
       <c r="I3">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="J3">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.28486</v>
       </c>
       <c r="O3">
-        <v>0.09865555829927236</v>
+        <v>0.07962758736516451</v>
       </c>
       <c r="P3">
-        <v>0.09865555829927235</v>
+        <v>0.07962758736516451</v>
       </c>
       <c r="Q3">
-        <v>0.4398385574022223</v>
+        <v>0.3512270454044445</v>
       </c>
       <c r="R3">
-        <v>3.95854701662</v>
+        <v>3.16104340864</v>
       </c>
       <c r="S3">
-        <v>0.02005215524899898</v>
+        <v>0.003432979318921648</v>
       </c>
       <c r="T3">
-        <v>0.02005215524899898</v>
+        <v>0.003432979318921648</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.026972333333333</v>
+        <v>0.8200746666666667</v>
       </c>
       <c r="H4">
-        <v>3.080917</v>
+        <v>2.460224</v>
       </c>
       <c r="I4">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="J4">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1794703333333333</v>
+        <v>0.3522683333333333</v>
       </c>
       <c r="N4">
-        <v>0.538411</v>
+        <v>1.056805</v>
       </c>
       <c r="O4">
-        <v>0.04134087589268054</v>
+        <v>0.06549416470700518</v>
       </c>
       <c r="P4">
-        <v>0.04134087589268053</v>
+        <v>0.06549416470700517</v>
       </c>
       <c r="Q4">
-        <v>0.1843110669874444</v>
+        <v>0.2888863360355556</v>
       </c>
       <c r="R4">
-        <v>1.658799602887</v>
+        <v>2.59997702432</v>
       </c>
       <c r="S4">
-        <v>0.008402706100095565</v>
+        <v>0.002823645929621121</v>
       </c>
       <c r="T4">
-        <v>0.008402706100095563</v>
+        <v>0.00282364592962112</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.026972333333333</v>
+        <v>0.8200746666666667</v>
       </c>
       <c r="H5">
-        <v>3.080917</v>
+        <v>2.460224</v>
       </c>
       <c r="I5">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="J5">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.417289</v>
+        <v>0.5549326666666667</v>
       </c>
       <c r="N5">
-        <v>1.251867</v>
+        <v>1.664798</v>
       </c>
       <c r="O5">
-        <v>0.09612225285356785</v>
+        <v>0.1031737684964519</v>
       </c>
       <c r="P5">
-        <v>0.09612225285356783</v>
+        <v>0.1031737684964519</v>
       </c>
       <c r="Q5">
-        <v>0.4285442580043334</v>
+        <v>0.4550862216391112</v>
       </c>
       <c r="R5">
-        <v>3.856898322039</v>
+        <v>4.095775994752</v>
       </c>
       <c r="S5">
-        <v>0.01953725031139471</v>
+        <v>0.004448124390347682</v>
       </c>
       <c r="T5">
-        <v>0.0195372503113947</v>
+        <v>0.004448124390347682</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>4.074094000000001</v>
       </c>
       <c r="I6">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="J6">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.316186</v>
+        <v>4.043133999999999</v>
       </c>
       <c r="N6">
-        <v>9.948558</v>
+        <v>12.129402</v>
       </c>
       <c r="O6">
-        <v>0.7638813129544794</v>
+        <v>0.7517044794313785</v>
       </c>
       <c r="P6">
-        <v>0.7638813129544793</v>
+        <v>0.7517044794313784</v>
       </c>
       <c r="Q6">
-        <v>4.503484495161334</v>
+        <v>5.490702656865333</v>
       </c>
       <c r="R6">
-        <v>40.53136045645201</v>
+        <v>49.41632391178801</v>
       </c>
       <c r="S6">
-        <v>0.2053129920937182</v>
+        <v>0.05366747496811166</v>
       </c>
       <c r="T6">
-        <v>0.2053129920937181</v>
+        <v>0.05366747496811165</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>4.074094000000001</v>
       </c>
       <c r="I7">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="J7">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.28486</v>
       </c>
       <c r="O7">
-        <v>0.09865555829927236</v>
+        <v>0.07962758736516451</v>
       </c>
       <c r="P7">
-        <v>0.09865555829927235</v>
+        <v>0.07962758736516451</v>
       </c>
       <c r="Q7">
         <v>0.5816267129822223</v>
@@ -883,10 +883,10 @@
         <v>5.234640416840001</v>
       </c>
       <c r="S7">
-        <v>0.0265162499953797</v>
+        <v>0.005684962200735696</v>
       </c>
       <c r="T7">
-        <v>0.0265162499953797</v>
+        <v>0.005684962200735696</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>4.074094000000001</v>
       </c>
       <c r="I8">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="J8">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1794703333333333</v>
+        <v>0.3522683333333333</v>
       </c>
       <c r="N8">
-        <v>0.538411</v>
+        <v>1.056805</v>
       </c>
       <c r="O8">
-        <v>0.04134087589268054</v>
+        <v>0.06549416470700518</v>
       </c>
       <c r="P8">
-        <v>0.04134087589268053</v>
+        <v>0.06549416470700517</v>
       </c>
       <c r="Q8">
-        <v>0.2437263360704445</v>
+        <v>0.4783914344077779</v>
       </c>
       <c r="R8">
-        <v>2.193537024634</v>
+        <v>4.305522909670001</v>
       </c>
       <c r="S8">
-        <v>0.01111143679176126</v>
+        <v>0.00467591525812033</v>
       </c>
       <c r="T8">
-        <v>0.01111143679176126</v>
+        <v>0.004675915258120329</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>4.074094000000001</v>
       </c>
       <c r="I9">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="J9">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.417289</v>
+        <v>0.5549326666666667</v>
       </c>
       <c r="N9">
-        <v>1.251867</v>
+        <v>1.664798</v>
       </c>
       <c r="O9">
-        <v>0.09612225285356785</v>
+        <v>0.1031737684964519</v>
       </c>
       <c r="P9">
-        <v>0.09612225285356783</v>
+        <v>0.1031737684964519</v>
       </c>
       <c r="Q9">
-        <v>0.5666915370553335</v>
+        <v>0.7536159492235558</v>
       </c>
       <c r="R9">
-        <v>5.100223833498001</v>
+        <v>6.782543543012002</v>
       </c>
       <c r="S9">
-        <v>0.02583535819697555</v>
+        <v>0.007366027195072138</v>
       </c>
       <c r="T9">
-        <v>0.02583535819697555</v>
+        <v>0.007366027195072136</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.667646666666666</v>
+        <v>16.8273</v>
       </c>
       <c r="H10">
-        <v>8.002939999999999</v>
+        <v>50.4819</v>
       </c>
       <c r="I10">
-        <v>0.5279697763899619</v>
+        <v>0.8846442749337277</v>
       </c>
       <c r="J10">
-        <v>0.5279697763899619</v>
+        <v>0.8846442749337278</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.316186</v>
+        <v>4.043133999999999</v>
       </c>
       <c r="N10">
-        <v>9.948558</v>
+        <v>12.129402</v>
       </c>
       <c r="O10">
-        <v>0.7638813129544794</v>
+        <v>0.7517044794313785</v>
       </c>
       <c r="P10">
-        <v>0.7638813129544793</v>
+        <v>0.7517044794313784</v>
       </c>
       <c r="Q10">
-        <v>8.846412528946665</v>
+        <v>68.03502875819999</v>
       </c>
       <c r="R10">
-        <v>79.61771276051999</v>
+        <v>612.3152588237999</v>
       </c>
       <c r="S10">
-        <v>0.403306245989047</v>
+        <v>0.6649910641710071</v>
       </c>
       <c r="T10">
-        <v>0.4033062459890469</v>
+        <v>0.6649910641710071</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.667646666666666</v>
+        <v>16.8273</v>
       </c>
       <c r="H11">
-        <v>8.002939999999999</v>
+        <v>50.4819</v>
       </c>
       <c r="I11">
-        <v>0.5279697763899619</v>
+        <v>0.8846442749337277</v>
       </c>
       <c r="J11">
-        <v>0.5279697763899619</v>
+        <v>0.8846442749337278</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.28486</v>
       </c>
       <c r="O11">
-        <v>0.09865555829927236</v>
+        <v>0.07962758736516451</v>
       </c>
       <c r="P11">
-        <v>0.09865555829927235</v>
+        <v>0.07962758736516451</v>
       </c>
       <c r="Q11">
-        <v>1.142517498711111</v>
+        <v>7.206908225999999</v>
       </c>
       <c r="R11">
-        <v>10.2826574884</v>
+        <v>64.86217403400001</v>
       </c>
       <c r="S11">
-        <v>0.05208715305489368</v>
+        <v>0.07044208928937801</v>
       </c>
       <c r="T11">
-        <v>0.05208715305489367</v>
+        <v>0.07044208928937802</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.667646666666666</v>
+        <v>16.8273</v>
       </c>
       <c r="H12">
-        <v>8.002939999999999</v>
+        <v>50.4819</v>
       </c>
       <c r="I12">
-        <v>0.5279697763899619</v>
+        <v>0.8846442749337277</v>
       </c>
       <c r="J12">
-        <v>0.5279697763899619</v>
+        <v>0.8846442749337278</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1794703333333333</v>
+        <v>0.3522683333333333</v>
       </c>
       <c r="N12">
-        <v>0.538411</v>
+        <v>1.056805</v>
       </c>
       <c r="O12">
-        <v>0.04134087589268054</v>
+        <v>0.06549416470700518</v>
       </c>
       <c r="P12">
-        <v>0.04134087589268053</v>
+        <v>0.06549416470700517</v>
       </c>
       <c r="Q12">
-        <v>0.4787634364822221</v>
+        <v>5.9277249255</v>
       </c>
       <c r="R12">
-        <v>4.308870928339999</v>
+        <v>53.34952432949999</v>
       </c>
       <c r="S12">
-        <v>0.02182673300082371</v>
+        <v>0.05793903784961874</v>
       </c>
       <c r="T12">
-        <v>0.02182673300082371</v>
+        <v>0.05793903784961874</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>16.8273</v>
+      </c>
+      <c r="H13">
+        <v>50.4819</v>
+      </c>
+      <c r="I13">
+        <v>0.8846442749337277</v>
+      </c>
+      <c r="J13">
+        <v>0.8846442749337278</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5549326666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.664798</v>
+      </c>
+      <c r="O13">
+        <v>0.1031737684964519</v>
+      </c>
+      <c r="P13">
+        <v>0.1031737684964519</v>
+      </c>
+      <c r="Q13">
+        <v>9.338018461799999</v>
+      </c>
+      <c r="R13">
+        <v>84.04216615620001</v>
+      </c>
+      <c r="S13">
+        <v>0.09127208362372395</v>
+      </c>
+      <c r="T13">
+        <v>0.09127208362372394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.667646666666666</v>
-      </c>
-      <c r="H13">
-        <v>8.002939999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.5279697763899619</v>
-      </c>
-      <c r="J13">
-        <v>0.5279697763899619</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.417289</v>
-      </c>
-      <c r="N13">
-        <v>1.251867</v>
-      </c>
-      <c r="O13">
-        <v>0.09612225285356785</v>
-      </c>
-      <c r="P13">
-        <v>0.09612225285356783</v>
-      </c>
-      <c r="Q13">
-        <v>1.113179609886667</v>
-      </c>
-      <c r="R13">
-        <v>10.01861648898</v>
-      </c>
-      <c r="S13">
-        <v>0.0507496443451976</v>
-      </c>
-      <c r="T13">
-        <v>0.05074964434519758</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.016138</v>
+      </c>
+      <c r="H14">
+        <v>0.048414</v>
+      </c>
+      <c r="I14">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="J14">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.043133999999999</v>
+      </c>
+      <c r="N14">
+        <v>12.129402</v>
+      </c>
+      <c r="O14">
+        <v>0.7517044794313785</v>
+      </c>
+      <c r="P14">
+        <v>0.7517044794313784</v>
+      </c>
+      <c r="Q14">
+        <v>0.06524809649199999</v>
+      </c>
+      <c r="R14">
+        <v>0.5872328684279999</v>
+      </c>
+      <c r="S14">
+        <v>0.0006377509043989061</v>
+      </c>
+      <c r="T14">
+        <v>0.0006377509043989061</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.016138</v>
+      </c>
+      <c r="H15">
+        <v>0.048414</v>
+      </c>
+      <c r="I15">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="J15">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.4282866666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.28486</v>
+      </c>
+      <c r="O15">
+        <v>0.07962758736516451</v>
+      </c>
+      <c r="P15">
+        <v>0.07962758736516451</v>
+      </c>
+      <c r="Q15">
+        <v>0.006911690226666667</v>
+      </c>
+      <c r="R15">
+        <v>0.06220521204000001</v>
+      </c>
+      <c r="S15">
+        <v>6.755655612914624E-05</v>
+      </c>
+      <c r="T15">
+        <v>6.755655612914624E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.016138</v>
+      </c>
+      <c r="H16">
+        <v>0.048414</v>
+      </c>
+      <c r="I16">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="J16">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.3522683333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.056805</v>
+      </c>
+      <c r="O16">
+        <v>0.06549416470700518</v>
+      </c>
+      <c r="P16">
+        <v>0.06549416470700517</v>
+      </c>
+      <c r="Q16">
+        <v>0.005684906363333333</v>
+      </c>
+      <c r="R16">
+        <v>0.05116415727</v>
+      </c>
+      <c r="S16">
+        <v>5.556566964499042E-05</v>
+      </c>
+      <c r="T16">
+        <v>5.556566964499041E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.016138</v>
+      </c>
+      <c r="H17">
+        <v>0.048414</v>
+      </c>
+      <c r="I17">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="J17">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5549326666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.664798</v>
+      </c>
+      <c r="O17">
+        <v>0.1031737684964519</v>
+      </c>
+      <c r="P17">
+        <v>0.1031737684964519</v>
+      </c>
+      <c r="Q17">
+        <v>0.008955503374666668</v>
+      </c>
+      <c r="R17">
+        <v>0.080599530372</v>
+      </c>
+      <c r="S17">
+        <v>8.753328730810393E-05</v>
+      </c>
+      <c r="T17">
+        <v>8.753328730810392E-05</v>
       </c>
     </row>
   </sheetData>
